--- a/app/hello world.xlsx
+++ b/app/hello world.xlsx
@@ -1,42 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" calcCompleted="1" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>Hello World !</t>
-  </si>
-  <si>
-    <t>Hello World 2 !</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trx id</t>
+  </si>
+  <si>
+    <t>untuk</t>
+  </si>
+  <si>
+    <t>orang</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jatuh tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waktu transaksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beli bakwan</t>
+  </si>
+  <si>
+    <t>fulan</t>
+  </si>
+  <si>
+    <t>paid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
+      <name val="Calibri"/>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,25 +72,35 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -112,13 +146,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -141,19 +175,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -176,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,42 +383,287 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="7" max="8" width="10.421875"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>40461</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40461</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>